--- a/editMapaGANTT/tareas del proyecto.xlsx
+++ b/editMapaGANTT/tareas del proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\SugpaDoc\editMapaGANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,8 +551,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +583,13 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -657,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,15 +718,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +732,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,15 +1075,15 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1111,15 +1121,15 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1211,15 +1221,15 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1315,15 +1325,15 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1411,15 +1421,15 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1475,15 +1485,15 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1541,15 +1551,15 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1609,15 +1619,15 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1729,15 +1739,15 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1847,15 +1857,15 @@
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -1973,15 +1983,15 @@
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -2459,20 +2469,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B51:J51"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B51:J51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2526,15 +2536,15 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2572,15 +2582,15 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2672,15 +2682,15 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2776,15 +2786,15 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2872,15 +2882,15 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2936,15 +2946,15 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3002,15 +3012,15 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -3070,15 +3080,15 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -3190,15 +3200,15 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -3308,15 +3318,15 @@
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -3402,15 +3412,15 @@
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3675,18 +3685,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
@@ -3872,7 +3882,7 @@
     <mergeCell ref="B50:J50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3880,9 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3894,377 +3902,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>42946</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="24">
         <v>42950</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>42920</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>42960</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>1</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>42961</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>43001</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>42961</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>42963</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>42961</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>42980</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>42961</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>42976</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>1</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>42989</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>43003</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>5</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>43004</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <v>43020</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>7</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>43021</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>43052</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>8</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>43058</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <v>43061</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>9</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>43049</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>43054</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>11</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <v>42972</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <v>43042</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>2</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>43062</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>43067</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>10</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>43072</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <v>43082</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>13</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>42946</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <v>42982</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>42983</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <v>43086</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>15</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>42946</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>43086</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="H18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>